--- a/xlsx/汉娜·阿伦特_intext.xlsx
+++ b/xlsx/汉娜·阿伦特_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="172">
   <si>
     <t>汉娜·阿伦特</t>
   </si>
@@ -26,7 +26,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%B7%E6%84%8F%E5%BF%97%E5%B8%9D%E5%9C%8B</t>
   </si>
   <si>
-    <t>德意志帝國</t>
+    <t>德意志帝国</t>
   </si>
   <si>
     <t>政策_政策_政治_汉娜·阿伦特</t>
@@ -47,13 +47,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BC%A2%E8%AB%BE%E5%A8%81</t>
   </si>
   <si>
-    <t>漢諾威</t>
+    <t>汉诺威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -77,19 +77,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AD%90%E9%99%B8%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>歐陸哲學</t>
+    <t>欧陆哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E5%93%B2%E5%AD%B8</t>
   </si>
   <si>
-    <t>政治哲學</t>
+    <t>政治哲学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8F%BE%E4%BB%A3%E6%80%A7</t>
   </si>
   <si>
-    <t>現代性</t>
+    <t>现代性</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8E%86%E5%8F%B2%E5%93%B2%E5%AD%A6</t>
@@ -107,7 +107,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%A0%BC%E6%8B%89%E5%BA%95</t>
   </si>
   <si>
-    <t>蘇格拉底</t>
+    <t>苏格拉底</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E6%B3%A2%E7%9A%84%E5%A5%A5%E5%8F%A4%E6%96%AF%E4%B8%81</t>
@@ -125,7 +125,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E4%B8%81%C2%B7%E6%B5%B7%E5%BE%B7%E6%A0%BC%E7%88%BE</t>
   </si>
   <si>
-    <t>馬丁·海德格爾</t>
+    <t>马丁·海德格尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%A1%E5%B0%94%C2%B7%E9%9B%85%E6%96%AF%E4%BD%A9%E6%96%AF</t>
@@ -137,13 +137,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8F%AF%E7%89%B9%C2%B7%E7%8F%AD%E9%9B%85%E6%98%8E</t>
   </si>
   <si>
-    <t>華特·班雅明</t>
+    <t>华特·班雅明</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8C%B1%E8%8E%89%E4%BA%9E%C2%B7%E5%85%8B%E8%8E%89%E6%96%AF%E8%92%82%E5%A8%83</t>
   </si>
   <si>
-    <t>茱莉亞·克莉斯蒂娃</t>
+    <t>茱莉亚·克莉斯蒂娃</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E7%B1%8D</t>
@@ -179,9 +179,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%89%E8%AF%BA%E5%A8%81</t>
   </si>
   <si>
-    <t>汉诺威</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%93%A5%E5%B0%BC%E6%96%AF%E5%A0%A1</t>
   </si>
   <si>
@@ -287,9 +284,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD</t>
   </si>
   <si>
-    <t>美国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%BE%E8%AF%81</t>
   </si>
   <si>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%BD%E8%AD%89%E6%9C%83</t>
   </si>
   <si>
-    <t>聽證會</t>
+    <t>听证会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%92%E5%8C%96</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%8A%9B</t>
   </si>
   <si>
-    <t>權力</t>
+    <t>权力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%83%E5%A8%81</t>
@@ -353,9 +347,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>極權主義</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E9%BB%8E%E5%85%AC%E7%A4%BE</t>
   </si>
   <si>
@@ -365,7 +356,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%AC%8A%E9%81%8B%E5%8B%95</t>
   </si>
   <si>
-    <t>民權運動</t>
+    <t>民权运动</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%87%BA%E7%94%9F%E7%8E%87</t>
@@ -377,37 +368,37 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A5%B5%E6%AC%8A%E4%B8%BB%E7%BE%A9%E7%9A%84%E8%B5%B7%E6%BA%90</t>
   </si>
   <si>
-    <t>極權主義的起源</t>
+    <t>极权主义的起源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E9%81%94%E6%9E%97%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>史達林主義</t>
+    <t>史达林主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E7%94%A2%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>共產主義</t>
+    <t>共产主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E7%B2%B9%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>納粹主義</t>
+    <t>纳粹主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%8D%E7%8C%B6%E5%A4%AA%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>反猶太主義</t>
+    <t>反犹太主义</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%9D%E5%9C%8B%E4%B8%BB%E7%BE%A9</t>
   </si>
   <si>
-    <t>帝國主義</t>
+    <t>帝国主义</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Hannah_Arendt_Institute_for_the_Research_on_Totalitarianism</t>
@@ -437,7 +428,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B1%9F%E5%AE%9C%E6%A8%BA</t>
   </si>
   <si>
-    <t>江宜樺</t>
+    <t>江宜桦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%94%A1%E8%8B%B1%E6%96%87</t>
@@ -449,7 +440,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%99%9A%E6%8B%9F%E5%9B%BD%E9%99%85%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -467,7 +458,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E6%A8%99%E6%BA%96%E5%90%8D%E7%A8%B1%E8%AD%98%E5%88%A5%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際標準名稱識別碼</t>
+    <t>国际标准名称识别码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -485,7 +476,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E5%AD%B8%E6%96%87%E6%AA%94%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>大學文檔系統</t>
+    <t>大学文档系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9B%BD%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -509,13 +500,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E6%B4%B2%E5%9C%8B%E5%AE%B6%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>澳洲國家圖書館</t>
+    <t>澳洲国家图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8D%B7%E5%85%8B%E5%9B%BD%E5%AE%B6%E5%9B%BE%E4%B9%A6%E9%A6%86</t>
@@ -1664,7 +1655,7 @@
         <v>53</v>
       </c>
       <c r="F27" t="s">
-        <v>54</v>
+        <v>10</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1690,10 +1681,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1719,10 +1710,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
+        <v>56</v>
+      </c>
+      <c r="F29" t="s">
         <v>57</v>
-      </c>
-      <c r="F29" t="s">
-        <v>58</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1748,10 +1739,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1777,10 +1768,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1806,10 +1797,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1835,10 +1826,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>64</v>
+      </c>
+      <c r="F33" t="s">
         <v>65</v>
-      </c>
-      <c r="F33" t="s">
-        <v>66</v>
       </c>
       <c r="G33" t="n">
         <v>3</v>
@@ -1864,10 +1855,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>66</v>
+      </c>
+      <c r="F34" t="s">
         <v>67</v>
-      </c>
-      <c r="F34" t="s">
-        <v>68</v>
       </c>
       <c r="G34" t="n">
         <v>3</v>
@@ -1893,10 +1884,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>68</v>
+      </c>
+      <c r="F35" t="s">
         <v>69</v>
-      </c>
-      <c r="F35" t="s">
-        <v>70</v>
       </c>
       <c r="G35" t="n">
         <v>3</v>
@@ -1951,10 +1942,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1980,10 +1971,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2009,10 +2000,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>4</v>
@@ -2038,10 +2029,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>2</v>
@@ -2067,10 +2058,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -2096,10 +2087,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2125,10 +2116,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2154,10 +2145,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2183,10 +2174,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
+        <v>86</v>
+      </c>
+      <c r="F45" t="s">
         <v>87</v>
-      </c>
-      <c r="F45" t="s">
-        <v>88</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2212,10 +2203,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>12</v>
       </c>
       <c r="G46" t="n">
         <v>10</v>
@@ -2241,10 +2232,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2270,10 +2261,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>4</v>
@@ -2299,10 +2290,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2328,10 +2319,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2357,10 +2348,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2386,10 +2377,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2415,10 +2406,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>1</v>
@@ -2444,10 +2435,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -2473,10 +2464,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2502,10 +2493,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2531,10 +2522,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>50</v>
       </c>
       <c r="G57" t="n">
         <v>3</v>
@@ -2560,10 +2551,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2589,10 +2580,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2618,10 +2609,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2647,10 +2638,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -2676,10 +2667,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2705,10 +2696,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2734,10 +2725,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2763,10 +2754,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2792,10 +2783,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2821,10 +2812,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2879,10 +2870,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="G69" t="n">
         <v>3</v>
@@ -2908,10 +2899,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2937,10 +2928,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2966,10 +2957,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2995,10 +2986,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="F73" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="G73" t="n">
         <v>5</v>
@@ -3024,10 +3015,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F74" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G74" t="n">
         <v>5</v>
@@ -3053,10 +3044,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3082,10 +3073,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3111,10 +3102,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3140,10 +3131,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3169,10 +3160,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3198,10 +3189,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3227,10 +3218,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3256,10 +3247,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3285,10 +3276,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3314,10 +3305,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3343,10 +3334,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3372,10 +3363,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3401,10 +3392,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -3430,10 +3421,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3459,10 +3450,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
